--- a/assets/Cards V2 MASTER.xlsx
+++ b/assets/Cards V2 MASTER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troykyo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troykyo/Github/dssloopholes.github.io/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1C6BF4-1C30-E74F-9F6E-83F6A69886B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675ECBCC-1DDA-2140-885B-04EF656179BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-640" yWindow="1700" windowWidth="28040" windowHeight="15920" xr2:uid="{48A65312-EDEF-4E4A-AE66-4BA9ABCF8C54}"/>
+    <workbookView xWindow="0" yWindow="1700" windowWidth="28040" windowHeight="15920" xr2:uid="{48A65312-EDEF-4E4A-AE66-4BA9ABCF8C54}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards V2 MASTER" sheetId="1" r:id="rId1"/>
@@ -160,12 +160,6 @@
     <t>What are the potential benefits and challenges of implementing Augmented Reality technology in the fashion mnufacturing, retail, use, or recycling?</t>
   </si>
   <si>
-    <t>Data Science, Artificial Intelligence, and Machine Learning (DS AI, and ML)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DS, AI and ML play a crucial role in Fashion ecosystem processes. From image generation for design, user profile creation, business systems, and production optimization; DS, AI and ML have been a . It can even support sustainability by analyzing images of what you wear understand what is in your wardrobe to helps companies understand what to make or connect you with existing items.</t>
-  </si>
-  <si>
     <t>How can DS, AI and ML help make fashion more eco-friendly and reduce waste?</t>
   </si>
   <si>
@@ -647,6 +641,12 @@
   </si>
   <si>
     <t xml:space="preserve"> How could digital technologies support and incentivize stakeholders to be willing to share feedback?</t>
+  </si>
+  <si>
+    <t>Data Science, Artificial Intelligence, and Machine Learning (DS, AI, and ML)</t>
+  </si>
+  <si>
+    <t>DS, AI and ML play a crucial role in Fashion ecosystem processes. From image generation for design, user profile creation, business systems, and production optimization; DS, AI and ML have been a . It can even support sustainability by analyzing images of what you wear understand what is in your wardrobe to helps companies understand what to make or connect you with existing items.</t>
   </si>
 </sst>
 </file>
@@ -1543,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEC69A6-81D6-124E-8C6A-6F0A725024EE}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1743,16 +1743,16 @@
     </row>
     <row r="12" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -1760,16 +1760,16 @@
     </row>
     <row r="13" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -1777,648 +1777,648 @@
     </row>
     <row r="14" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>76</v>
       </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>80</v>
       </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>84</v>
       </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
-      </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
         <v>87</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>88</v>
       </c>
-      <c r="C22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" t="s">
-        <v>90</v>
-      </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
         <v>91</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>92</v>
       </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
         <v>95</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>96</v>
       </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
-      </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
         <v>99</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>100</v>
       </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
         <v>103</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>104</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>105</v>
-      </c>
-      <c r="D26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
         <v>108</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>109</v>
       </c>
-      <c r="C27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" t="s">
-        <v>111</v>
-      </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
         <v>112</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>113</v>
       </c>
-      <c r="C28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" t="s">
-        <v>115</v>
-      </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
         <v>116</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>117</v>
       </c>
-      <c r="C29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" t="s">
-        <v>119</v>
-      </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
         <v>120</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>121</v>
       </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" t="s">
-        <v>123</v>
-      </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
         <v>124</v>
       </c>
-      <c r="B31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" t="s">
-        <v>126</v>
-      </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
         <v>127</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>128</v>
       </c>
-      <c r="C32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" t="s">
-        <v>130</v>
-      </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
         <v>131</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>132</v>
       </c>
-      <c r="C33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" t="s">
-        <v>134</v>
-      </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
         <v>135</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>136</v>
       </c>
-      <c r="C34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" t="s">
-        <v>138</v>
-      </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
         <v>139</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>140</v>
       </c>
-      <c r="C35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" t="s">
-        <v>142</v>
-      </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" t="s">
         <v>143</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>144</v>
       </c>
-      <c r="C36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" t="s">
-        <v>146</v>
-      </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
         <v>147</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>148</v>
       </c>
-      <c r="C37" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" t="s">
-        <v>150</v>
-      </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" t="s">
         <v>151</v>
       </c>
-      <c r="B38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" t="s">
-        <v>153</v>
-      </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
         <v>154</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>155</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>156</v>
-      </c>
-      <c r="D39" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
         <v>159</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>160</v>
       </c>
-      <c r="C40" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" t="s">
-        <v>162</v>
-      </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" t="s">
         <v>163</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>164</v>
       </c>
-      <c r="C41" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" t="s">
-        <v>166</v>
-      </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" t="s">
         <v>167</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>168</v>
       </c>
-      <c r="C42" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" t="s">
-        <v>170</v>
-      </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" t="s">
         <v>171</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>172</v>
       </c>
-      <c r="C43" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" t="s">
-        <v>174</v>
-      </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" t="s">
         <v>175</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>176</v>
       </c>
-      <c r="C44" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" t="s">
-        <v>178</v>
-      </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
         <v>179</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>180</v>
       </c>
-      <c r="C45" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" t="s">
-        <v>182</v>
-      </c>
       <c r="E45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" t="s">
         <v>183</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>184</v>
       </c>
-      <c r="C46" t="s">
-        <v>185</v>
-      </c>
-      <c r="D46" t="s">
-        <v>186</v>
-      </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" t="s">
         <v>187</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>188</v>
       </c>
-      <c r="C47" t="s">
-        <v>189</v>
-      </c>
-      <c r="D47" t="s">
-        <v>190</v>
-      </c>
       <c r="E47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
         <v>191</v>
       </c>
-      <c r="B48" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" t="s">
-        <v>193</v>
-      </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" t="s">
         <v>194</v>
       </c>
-      <c r="B49" t="s">
-        <v>195</v>
-      </c>
-      <c r="C49" t="s">
-        <v>196</v>
-      </c>
       <c r="D49" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" t="s">
         <v>197</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>198</v>
       </c>
-      <c r="C50" t="s">
-        <v>199</v>
-      </c>
-      <c r="D50" t="s">
-        <v>200</v>
-      </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
         <v>201</v>
       </c>
-      <c r="B51" t="s">
-        <v>202</v>
-      </c>
-      <c r="C51" t="s">
-        <v>203</v>
-      </c>
       <c r="D51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Cards V2 MASTER.xlsx
+++ b/assets/Cards V2 MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troykyo/Github/dssloopholes.github.io/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675ECBCC-1DDA-2140-885B-04EF656179BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7202613-53FE-2342-BF71-99F2A5C7062A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1700" windowWidth="28040" windowHeight="15920" xr2:uid="{48A65312-EDEF-4E4A-AE66-4BA9ABCF8C54}"/>
+    <workbookView xWindow="4640" yWindow="2040" windowWidth="28040" windowHeight="15920" xr2:uid="{48A65312-EDEF-4E4A-AE66-4BA9ABCF8C54}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards V2 MASTER" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
     <t>Data Science, Artificial Intelligence, and Machine Learning (DS, AI, and ML)</t>
   </si>
   <si>
-    <t>DS, AI and ML play a crucial role in Fashion ecosystem processes. From image generation for design, user profile creation, business systems, and production optimization; DS, AI and ML have been a . It can even support sustainability by analyzing images of what you wear understand what is in your wardrobe to helps companies understand what to make or connect you with existing items.</t>
+    <t>DS, AI, and ML play a crucial role in Fashion ecosystem processes. From image generation for design, user profile creation, business systems, and production optimization; DS, AI and ML have been a powerful tool. They can support sustainability by analyzing images of you to understand what is in your wardrobe to help companies understand what to make or connect you with existing items.</t>
   </si>
 </sst>
 </file>
@@ -1543,13 +1543,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEC69A6-81D6-124E-8C6A-6F0A725024EE}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="61.5" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
